--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业房屋建筑竣工面积.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业房屋建筑竣工面积.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:AQ65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,11 +539,116 @@
           <t>国有及国有控股建筑业企业餐饮用房屋竣工面积_累计值</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业仓库竣工面积</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业住宅房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业住宿和餐饮用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业其他商业及服务用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业其他未列明的房屋建筑物竣工面积</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业办公用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业医疗用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业厂房及建筑物竣工面积</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业厂房竣工面积</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业商业及服务用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业商务会展用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业商厦房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业宾馆用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业居民服务用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业房屋建筑竣工面积</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业批发和零售用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业教育用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业文化、体育和娱乐用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业科学研究用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业科研、教育和医疗用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业餐饮用房屋竣工面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -591,32 +696,77 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>1762.08</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>48.74</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>140.56</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>309.98</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>618.3099999999999</v>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>48.24</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3269.65</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>76.72</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>135.48</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>8254.43</v>
+        <v>5083.83</v>
       </c>
       <c r="D3" t="n">
-        <v>329.62</v>
+        <v>140.75</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>703.62</v>
+        <v>395.82</v>
       </c>
       <c r="G3" t="n">
-        <v>1288.81</v>
+        <v>853.63</v>
       </c>
       <c r="H3" t="n">
-        <v>235.29</v>
+        <v>166.22</v>
       </c>
       <c r="I3" t="n">
-        <v>2165.6</v>
+        <v>1501.07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -624,51 +774,96 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>192.09</v>
+        <v>175.41</v>
       </c>
       <c r="P3" t="n">
-        <v>14921.99</v>
+        <v>9290.719999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>501.63</v>
+        <v>331.97</v>
       </c>
       <c r="R3" t="n">
-        <v>858</v>
+        <v>423.11</v>
       </c>
       <c r="S3" t="n">
-        <v>286.39</v>
+        <v>154.24</v>
       </c>
       <c r="T3" t="n">
-        <v>106.53</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>3321.75</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>92.00999999999999</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>255.26</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>543.65</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>102.46</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>882.76</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>127.17</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6021.07</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>255.25</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>287.63</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>104.64</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>48.50000000000001</v>
+      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>5083.83</v>
+        <v>8254.43</v>
       </c>
       <c r="D4" t="n">
-        <v>140.75</v>
+        <v>329.62</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>395.82</v>
+        <v>703.62</v>
       </c>
       <c r="G4" t="n">
-        <v>853.63</v>
+        <v>1288.81</v>
       </c>
       <c r="H4" t="n">
-        <v>166.22</v>
+        <v>235.29</v>
       </c>
       <c r="I4" t="n">
-        <v>1501.07</v>
+        <v>2165.6</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -676,30 +871,75 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>175.41</v>
+        <v>192.09</v>
       </c>
       <c r="P4" t="n">
-        <v>9290.719999999999</v>
+        <v>14921.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>331.97</v>
+        <v>501.63</v>
       </c>
       <c r="R4" t="n">
-        <v>423.11</v>
+        <v>858</v>
       </c>
       <c r="S4" t="n">
-        <v>154.24</v>
+        <v>286.39</v>
       </c>
       <c r="T4" t="n">
-        <v>64.68000000000001</v>
+        <v>106.53</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>3170.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>188.87</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>307.8</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>435.1799999999999</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>69.06999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>664.53</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>16.68000000000001</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>5631.27</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>169.66</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>434.89</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>132.15</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41.84999999999999</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -747,11 +987,56 @@
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>8641.700000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>305.87</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>703.8200000000001</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1750.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>209.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2723.5</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>206.15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>16212.03</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>438.47</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>884.6800000000001</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>264.74</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>83.16999999999999</v>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -799,32 +1084,77 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>1508.73</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>52.28</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>56.78</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>280.68</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>685.79</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>48.29</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2961.28</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>90.31</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>152.05</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>61.21</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>8132.72</v>
+        <v>4575.94</v>
       </c>
       <c r="D7" t="n">
-        <v>338.77</v>
+        <v>172.01</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>562.25</v>
+        <v>287.53</v>
       </c>
       <c r="G7" t="n">
-        <v>1648.55</v>
+        <v>1029.85</v>
       </c>
       <c r="H7" t="n">
-        <v>175.63</v>
+        <v>82.14</v>
       </c>
       <c r="I7" t="n">
-        <v>2586.6</v>
+        <v>1591.01</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -832,51 +1162,96 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>230.7</v>
+        <v>127.99</v>
       </c>
       <c r="P7" t="n">
-        <v>15154.44</v>
+        <v>8713.459999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>366.37</v>
+        <v>266.58</v>
       </c>
       <c r="R7" t="n">
-        <v>720.6900000000001</v>
+        <v>381.64</v>
       </c>
       <c r="S7" t="n">
-        <v>303.42</v>
+        <v>156.77</v>
       </c>
       <c r="T7" t="n">
-        <v>88.75</v>
+        <v>42.01</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>3067.21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>119.73</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>230.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>749.1699999999998</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>67.42</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>905.22</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>79.69999999999999</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5752.179999999998</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>176.27</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>229.59</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>95.56</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>4575.94</v>
+        <v>8132.72</v>
       </c>
       <c r="D8" t="n">
-        <v>172.01</v>
+        <v>338.77</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>287.53</v>
+        <v>562.25</v>
       </c>
       <c r="G8" t="n">
-        <v>1029.85</v>
+        <v>1648.55</v>
       </c>
       <c r="H8" t="n">
-        <v>82.14</v>
+        <v>175.63</v>
       </c>
       <c r="I8" t="n">
-        <v>1591.01</v>
+        <v>2586.6</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -884,30 +1259,75 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>127.99</v>
+        <v>230.7</v>
       </c>
       <c r="P8" t="n">
-        <v>8713.459999999999</v>
+        <v>15154.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.58</v>
+        <v>366.37</v>
       </c>
       <c r="R8" t="n">
-        <v>381.64</v>
+        <v>720.6900000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>156.77</v>
+        <v>303.42</v>
       </c>
       <c r="T8" t="n">
-        <v>42.01</v>
+        <v>88.75</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>3556.780000000001</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>166.76</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>274.72</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>618.7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>93.48999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>995.5899999999999</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>102.71</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>6440.980000000001</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>99.79000000000002</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>339.0500000000001</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>146.65</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -955,11 +1375,56 @@
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>9203.66</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>765.54</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1793.41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>188.03</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2116.13</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>163.18</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16071.41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>464.72</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>696.99</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>318.34</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>91.69</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1007,32 +1472,77 @@
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>1997.85</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>86.78</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>377.48</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>525.74</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3412.13</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>106.04</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>9184.82</v>
+        <v>5456.89</v>
       </c>
       <c r="D11" t="n">
-        <v>437.64</v>
+        <v>250.81</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>411.32</v>
+        <v>226.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1671.48</v>
+        <v>1011.21</v>
       </c>
       <c r="H11" t="n">
-        <v>182.06</v>
+        <v>108.85</v>
       </c>
       <c r="I11" t="n">
-        <v>2527.47</v>
+        <v>1388.82</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1040,51 +1550,96 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>171.3</v>
+        <v>100.52</v>
       </c>
       <c r="P11" t="n">
-        <v>16001.99</v>
+        <v>9385.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>359.65</v>
+        <v>269.53</v>
       </c>
       <c r="R11" t="n">
-        <v>619.4400000000001</v>
+        <v>319.2</v>
       </c>
       <c r="S11" t="n">
-        <v>346.41</v>
+        <v>199.52</v>
       </c>
       <c r="T11" t="n">
-        <v>90.39</v>
+        <v>53.1</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>3459.04</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>164.03</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>633.73</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>863.0799999999999</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5973.12</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>171.15</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>213.16</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>133.17</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>5456.89</v>
+        <v>9184.82</v>
       </c>
       <c r="D12" t="n">
-        <v>250.81</v>
+        <v>437.64</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>226.8</v>
+        <v>411.32</v>
       </c>
       <c r="G12" t="n">
-        <v>1011.21</v>
+        <v>1671.48</v>
       </c>
       <c r="H12" t="n">
-        <v>108.85</v>
+        <v>182.06</v>
       </c>
       <c r="I12" t="n">
-        <v>1388.82</v>
+        <v>2527.47</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1092,30 +1647,75 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>100.52</v>
+        <v>171.3</v>
       </c>
       <c r="P12" t="n">
-        <v>9385.25</v>
+        <v>16001.99</v>
       </c>
       <c r="Q12" t="n">
-        <v>269.53</v>
+        <v>359.65</v>
       </c>
       <c r="R12" t="n">
-        <v>319.2</v>
+        <v>619.4400000000001</v>
       </c>
       <c r="S12" t="n">
-        <v>199.52</v>
+        <v>346.41</v>
       </c>
       <c r="T12" t="n">
-        <v>53.1</v>
+        <v>90.39</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>3727.929999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>186.83</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>184.52</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>660.27</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>73.21000000000001</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1138.65</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>70.78000000000002</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>6616.74</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>90.12</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>300.2400000000001</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>146.89</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1163,11 +1763,56 @@
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>9216.27</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>331.4300000000001</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>518.8299999999999</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1350.8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>278.03</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2801.15</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="n">
+        <v>177.16</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>16156.93</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>434.78</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>603.98</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>359.74</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>84.77999999999999</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1215,32 +1860,77 @@
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>1959.97</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>239.33</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>594.95</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="n">
+        <v>53.16</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>3328.45</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>124.26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>139.12</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>72.81</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>8982.57</v>
+        <v>5277.18</v>
       </c>
       <c r="D15" t="n">
-        <v>190.42</v>
+        <v>104.62</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>551.47</v>
+        <v>268</v>
       </c>
       <c r="G15" t="n">
-        <v>1546.36</v>
+        <v>789.52</v>
       </c>
       <c r="H15" t="n">
-        <v>163.48</v>
+        <v>104.56</v>
       </c>
       <c r="I15" t="n">
-        <v>2470.81</v>
+        <v>1415.77</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1248,51 +1938,96 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>310.99</v>
+        <v>165.89</v>
       </c>
       <c r="P15" t="n">
-        <v>15670.44</v>
+        <v>8971.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>444.99</v>
+        <v>295.51</v>
       </c>
       <c r="R15" t="n">
-        <v>638.74</v>
+        <v>352</v>
       </c>
       <c r="S15" t="n">
-        <v>291.76</v>
+        <v>159.06</v>
       </c>
       <c r="T15" t="n">
-        <v>78.84</v>
+        <v>39.22</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>3317.21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>193</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>550.1899999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>72.33000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>820.8199999999999</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="n">
+        <v>112.73</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>5642.88</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>171.25</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>212.88</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>5277.18</v>
+        <v>8982.57</v>
       </c>
       <c r="D16" t="n">
-        <v>104.62</v>
+        <v>190.42</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>268</v>
+        <v>551.47</v>
       </c>
       <c r="G16" t="n">
-        <v>789.52</v>
+        <v>1546.36</v>
       </c>
       <c r="H16" t="n">
-        <v>104.56</v>
+        <v>163.48</v>
       </c>
       <c r="I16" t="n">
-        <v>1415.77</v>
+        <v>2470.81</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1300,30 +2035,75 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>165.89</v>
+        <v>310.99</v>
       </c>
       <c r="P16" t="n">
-        <v>8971.33</v>
+        <v>15670.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>295.51</v>
+        <v>444.99</v>
       </c>
       <c r="R16" t="n">
-        <v>352</v>
+        <v>638.74</v>
       </c>
       <c r="S16" t="n">
-        <v>159.06</v>
+        <v>291.76</v>
       </c>
       <c r="T16" t="n">
-        <v>39.22</v>
+        <v>78.84</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>3705.389999999999</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>85.79999999999998</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>283.47</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>756.8399999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>58.91999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1055.04</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>6699.110000000001</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>149.48</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>286.74</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1371,11 +2151,56 @@
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>10979.4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>272.04</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>584.4400000000001</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1547.94</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>245.36</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2489.09</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="n">
+        <v>203.28</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17826.50999999999</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>398.66</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>651.4400000000001</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>376.79</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>78.06</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1423,32 +2248,77 @@
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>1914.02</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>111.67</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>347.19</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>515.21</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3327.63</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>45.13</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>139.21</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>78.17</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>8649.629999999999</v>
+        <v>4702.39</v>
       </c>
       <c r="D19" t="n">
-        <v>409.61</v>
+        <v>167.16</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>677.75</v>
+        <v>424.05</v>
       </c>
       <c r="G19" t="n">
-        <v>1580.25</v>
+        <v>823.87</v>
       </c>
       <c r="H19" t="n">
-        <v>235.99</v>
+        <v>113.03</v>
       </c>
       <c r="I19" t="n">
-        <v>2441.51</v>
+        <v>1220.45</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1456,51 +2326,96 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>250.84</v>
+        <v>172.5</v>
       </c>
       <c r="P19" t="n">
-        <v>15675.04</v>
+        <v>8370.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>246.35</v>
+        <v>204.3</v>
       </c>
       <c r="R19" t="n">
-        <v>662.0700000000001</v>
+        <v>298.98</v>
       </c>
       <c r="S19" t="n">
-        <v>407.81</v>
+        <v>193.56</v>
       </c>
       <c r="T19" t="n">
-        <v>113.21</v>
+        <v>49.89</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>2788.37</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>114.85</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>312.38</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>476.68</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>80.95</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>705.24</v>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>5042.53</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>159.17</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>159.77</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>115.39</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>4702.39</v>
+        <v>8649.629999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>167.16</v>
+        <v>409.61</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>424.05</v>
+        <v>677.75</v>
       </c>
       <c r="G20" t="n">
-        <v>823.87</v>
+        <v>1580.25</v>
       </c>
       <c r="H20" t="n">
-        <v>113.03</v>
+        <v>235.99</v>
       </c>
       <c r="I20" t="n">
-        <v>1220.45</v>
+        <v>2441.51</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1508,30 +2423,75 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>172.5</v>
+        <v>250.84</v>
       </c>
       <c r="P20" t="n">
-        <v>8370.16</v>
+        <v>15675.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.3</v>
+        <v>246.35</v>
       </c>
       <c r="R20" t="n">
-        <v>298.98</v>
+        <v>662.0700000000001</v>
       </c>
       <c r="S20" t="n">
-        <v>193.56</v>
+        <v>407.81</v>
       </c>
       <c r="T20" t="n">
-        <v>49.89</v>
+        <v>113.21</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>3947.239999999999</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>242.45</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>253.7</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>756.38</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>122.96</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1221.06</v>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>78.34</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>7304.880000000001</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>42.04999999999998</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>363.09</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>214.25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>63.31999999999999</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1579,11 +2539,56 @@
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>9849.219999999999</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>479.3</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>859.8199999999999</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1538.62</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>177.26</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2667.25</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>193.67</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>17070.72</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>292.02</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>682.6899999999999</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>236.82</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>94.06000000000002</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1631,32 +2636,77 @@
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>2204.52</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>329.86</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>140.08</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>387.41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>772.37</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>59.86</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>4301.47</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>59.55</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>77.48</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>11142.64</v>
+        <v>6029.82</v>
       </c>
       <c r="D23" t="n">
-        <v>305.23</v>
+        <v>137.03</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1361.87</v>
+        <v>302.18</v>
       </c>
       <c r="G23" t="n">
-        <v>1828.79</v>
+        <v>856.97</v>
       </c>
       <c r="H23" t="n">
-        <v>282.57</v>
+        <v>143.39</v>
       </c>
       <c r="I23" t="n">
-        <v>3218.28</v>
+        <v>1495.2</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1664,51 +2714,96 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>162.68</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>19954.1</v>
+        <v>9888.48</v>
       </c>
       <c r="Q23" t="n">
-        <v>357.42</v>
+        <v>195.35</v>
       </c>
       <c r="R23" t="n">
-        <v>747.85</v>
+        <v>385.46</v>
       </c>
       <c r="S23" t="n">
-        <v>458.87</v>
+        <v>199.08</v>
       </c>
       <c r="T23" t="n">
-        <v>87.89</v>
+        <v>46.52</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>3825.3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>137.03</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>469.56</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>48.46999999999998</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>722.83</v>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>37.63</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>5587.009999999999</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>228.36</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>6029.82</v>
+        <v>11142.64</v>
       </c>
       <c r="D24" t="n">
-        <v>137.03</v>
+        <v>305.23</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>302.18</v>
+        <v>1361.87</v>
       </c>
       <c r="G24" t="n">
-        <v>856.97</v>
+        <v>1828.79</v>
       </c>
       <c r="H24" t="n">
-        <v>143.39</v>
+        <v>282.57</v>
       </c>
       <c r="I24" t="n">
-        <v>1495.2</v>
+        <v>3218.28</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1716,30 +2811,75 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>97.48999999999999</v>
+        <v>162.68</v>
       </c>
       <c r="P24" t="n">
-        <v>9888.48</v>
+        <v>19954.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.35</v>
+        <v>357.42</v>
       </c>
       <c r="R24" t="n">
-        <v>385.46</v>
+        <v>747.85</v>
       </c>
       <c r="S24" t="n">
-        <v>199.08</v>
+        <v>458.87</v>
       </c>
       <c r="T24" t="n">
-        <v>46.52</v>
+        <v>87.89</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>5112.82</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>168.2</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>1059.69</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>971.8199999999999</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>139.18</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1723.08</v>
+      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="n">
+        <v>65.19000000000001</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>10065.62</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>162.07</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>362.39</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>259.79</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1787,11 +2927,56 @@
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>12230.24</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>1233.35</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1339.17</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>342.55</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2583.96</v>
+      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>287.21</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>19813.71</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>469.94</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>664.9799999999999</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>213.36</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>140.16</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1851,139 +3036,310 @@
       <c r="V26" t="n">
         <v>3.32</v>
       </c>
+      <c r="W26" t="n">
+        <v>59.84</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2488.35</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
+        <v>144.97</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>172.48</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>296.26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>88.37</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>562.9</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>484.17</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>497.37</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>285.61</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>57.85</v>
+      </c>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="n">
+        <v>4435.45</v>
+      </c>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="n">
+        <v>175.74</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>52.87</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3.32</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.46</v>
+        <v>116.79</v>
       </c>
       <c r="C27" t="n">
-        <v>13952.38</v>
+        <v>7337.38</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>502.65</v>
+        <v>295.75</v>
       </c>
       <c r="F27" t="n">
-        <v>715.23</v>
+        <v>417.91</v>
       </c>
       <c r="G27" t="n">
-        <v>1471.53</v>
+        <v>947.85</v>
       </c>
       <c r="H27" t="n">
-        <v>356.54</v>
+        <v>182.62</v>
       </c>
       <c r="I27" t="n">
-        <v>2456.97</v>
+        <v>1515.32</v>
       </c>
       <c r="J27" t="n">
-        <v>1986.75</v>
+        <v>1281.67</v>
       </c>
       <c r="K27" t="n">
-        <v>1818.73</v>
+        <v>1187.83</v>
       </c>
       <c r="L27" t="n">
-        <v>105.54</v>
+        <v>138.93</v>
       </c>
       <c r="M27" t="n">
-        <v>941.41</v>
+        <v>587.08</v>
       </c>
       <c r="N27" t="n">
-        <v>238.19</v>
+        <v>150.9</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>22171.3</v>
+        <v>12363.04</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>761.61</v>
+        <v>393.77</v>
       </c>
       <c r="S27" t="n">
-        <v>277.02</v>
+        <v>140.47</v>
       </c>
       <c r="T27" t="n">
-        <v>171.83</v>
+        <v>123.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1289.98</v>
+        <v>699.49</v>
       </c>
       <c r="V27" t="n">
-        <v>30.94</v>
+        <v>15.17</v>
+      </c>
+      <c r="W27" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4849.030000000001</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
+        <v>150.78</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>245.43</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>651.59</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>94.25</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>952.42</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>797.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>690.4599999999999</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>301.47</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>93.05000000000001</v>
+      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="n">
+        <v>7927.590000000001</v>
+      </c>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="n">
+        <v>218.03</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>81.84</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>394.11</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>11.85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.79</v>
+        <v>189.46</v>
       </c>
       <c r="C28" t="n">
-        <v>7337.38</v>
+        <v>13952.38</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>295.75</v>
+        <v>502.65</v>
       </c>
       <c r="F28" t="n">
-        <v>417.91</v>
+        <v>715.23</v>
       </c>
       <c r="G28" t="n">
-        <v>947.85</v>
+        <v>1471.53</v>
       </c>
       <c r="H28" t="n">
-        <v>182.62</v>
+        <v>356.54</v>
       </c>
       <c r="I28" t="n">
-        <v>1515.32</v>
+        <v>2456.97</v>
       </c>
       <c r="J28" t="n">
-        <v>1281.67</v>
+        <v>1986.75</v>
       </c>
       <c r="K28" t="n">
-        <v>1187.83</v>
+        <v>1818.73</v>
       </c>
       <c r="L28" t="n">
-        <v>138.93</v>
+        <v>105.54</v>
       </c>
       <c r="M28" t="n">
-        <v>587.08</v>
+        <v>941.41</v>
       </c>
       <c r="N28" t="n">
-        <v>150.9</v>
+        <v>238.19</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>12363.04</v>
+        <v>22171.3</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>393.77</v>
+        <v>761.61</v>
       </c>
       <c r="S28" t="n">
-        <v>140.47</v>
+        <v>277.02</v>
       </c>
       <c r="T28" t="n">
-        <v>123.1</v>
+        <v>171.83</v>
       </c>
       <c r="U28" t="n">
-        <v>699.49</v>
+        <v>1289.98</v>
       </c>
       <c r="V28" t="n">
-        <v>15.17</v>
+        <v>30.94</v>
+      </c>
+      <c r="W28" t="n">
+        <v>72.67</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6614.999999999999</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
+        <v>206.9</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>297.32</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>523.6799999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>173.92</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>941.6499999999999</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>705.0799999999999</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>630.9000000000001</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>354.3299999999999</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>87.28999999999999</v>
+      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="n">
+        <v>9808.259999999998</v>
+      </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="n">
+        <v>367.84</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>136.55</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>48.73000000000002</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>590.49</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>15.77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2043,11 +3399,68 @@
       <c r="V29" t="n">
         <v>97.31</v>
       </c>
+      <c r="W29" t="n">
+        <v>136.08</v>
+      </c>
+      <c r="X29" t="n">
+        <v>15681.48</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
+        <v>458.97</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>961.54</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1947.76</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>331.8899999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2998.7</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2312.98</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1732.96</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>386.15</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>590.39</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>231.08</v>
+      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="n">
+        <v>24929.88</v>
+      </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="n">
+        <v>644.7399999999999</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>298.8000000000001</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>195.92</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1172.55</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>66.37</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2107,139 +3520,310 @@
       <c r="V30" t="n">
         <v>4.67</v>
       </c>
+      <c r="W30" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3227.22</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
+        <v>104.96</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>177.52</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>306.32</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>577.65</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>466.05</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>445.57</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>227.83</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>44.46</v>
+      </c>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="n">
+        <v>5087.43</v>
+      </c>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="n">
+        <v>126.75</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>66.66</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>195.02</v>
+        <v>91.17</v>
       </c>
       <c r="C31" t="n">
-        <v>17178.44</v>
+        <v>9684.33</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>651.63</v>
+        <v>377.48</v>
       </c>
       <c r="F31" t="n">
-        <v>689.86</v>
+        <v>426.16</v>
       </c>
       <c r="G31" t="n">
-        <v>1629.88</v>
+        <v>975.85</v>
       </c>
       <c r="H31" t="n">
-        <v>384.2</v>
+        <v>205.04</v>
       </c>
       <c r="I31" t="n">
-        <v>2474.64</v>
+        <v>1560.29</v>
       </c>
       <c r="J31" t="n">
-        <v>2063.75</v>
+        <v>1177.97</v>
       </c>
       <c r="K31" t="n">
-        <v>2074.67</v>
+        <v>1268.7</v>
       </c>
       <c r="L31" t="n">
-        <v>169.92</v>
+        <v>126.51</v>
       </c>
       <c r="M31" t="n">
-        <v>895.26</v>
+        <v>612.6900000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>309.02</v>
+        <v>136.11</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>25876.19</v>
+        <v>14800.91</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>804.59</v>
+        <v>320.6</v>
       </c>
       <c r="S31" t="n">
-        <v>204.43</v>
+        <v>111.06</v>
       </c>
       <c r="T31" t="n">
-        <v>240.45</v>
+        <v>157.71</v>
       </c>
       <c r="U31" t="n">
-        <v>1429.24</v>
+        <v>683.35</v>
       </c>
       <c r="V31" t="n">
-        <v>48.84</v>
+        <v>15.9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>58.47</v>
+      </c>
+      <c r="X31" t="n">
+        <v>6457.110000000001</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>272.52</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>248.64</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>669.53</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>138.65</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>982.64</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>711.9200000000001</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>823.1300000000001</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>62.87</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>384.86</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>91.65000000000001</v>
+      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="n">
+        <v>9713.48</v>
+      </c>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="n">
+        <v>193.85</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>44.40000000000001</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>97.05000000000001</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>429.55</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>11.23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91.17</v>
+        <v>195.02</v>
       </c>
       <c r="C32" t="n">
-        <v>9684.33</v>
+        <v>17178.44</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>377.48</v>
+        <v>651.63</v>
       </c>
       <c r="F32" t="n">
-        <v>426.16</v>
+        <v>689.86</v>
       </c>
       <c r="G32" t="n">
-        <v>975.85</v>
+        <v>1629.88</v>
       </c>
       <c r="H32" t="n">
-        <v>205.04</v>
+        <v>384.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1560.29</v>
+        <v>2474.64</v>
       </c>
       <c r="J32" t="n">
-        <v>1177.97</v>
+        <v>2063.75</v>
       </c>
       <c r="K32" t="n">
-        <v>1268.7</v>
+        <v>2074.67</v>
       </c>
       <c r="L32" t="n">
-        <v>126.51</v>
+        <v>169.92</v>
       </c>
       <c r="M32" t="n">
-        <v>612.6900000000001</v>
+        <v>895.26</v>
       </c>
       <c r="N32" t="n">
-        <v>136.11</v>
+        <v>309.02</v>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>14800.91</v>
+        <v>25876.19</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>320.6</v>
+        <v>804.59</v>
       </c>
       <c r="S32" t="n">
-        <v>111.06</v>
+        <v>204.43</v>
       </c>
       <c r="T32" t="n">
-        <v>157.71</v>
+        <v>240.45</v>
       </c>
       <c r="U32" t="n">
-        <v>683.35</v>
+        <v>1429.24</v>
       </c>
       <c r="V32" t="n">
-        <v>15.9</v>
+        <v>48.84</v>
+      </c>
+      <c r="W32" t="n">
+        <v>103.85</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7494.109999999999</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>274.15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>263.7</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>654.0300000000001</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>179.16</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>914.3499999999999</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>885.78</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>805.97</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>43.40999999999998</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>282.5699999999999</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>172.91</v>
+      </c>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="n">
+        <v>11075.28</v>
+      </c>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="n">
+        <v>483.99</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>93.37</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>82.73999999999998</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>745.89</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>32.94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2299,11 +3883,68 @@
       <c r="V33" t="n">
         <v>120.35</v>
       </c>
+      <c r="W33" t="n">
+        <v>174.4</v>
+      </c>
+      <c r="X33" t="n">
+        <v>19522.24</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
+        <v>663.63</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>881.6</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>2026.92</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>313.21</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3086.47</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2383.33</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>2942.45</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>160.97</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1768.32</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>278.02</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="n">
+        <v>30546.67</v>
+      </c>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="n">
+        <v>819.4599999999999</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>399.9</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>380.04</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1512.71</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>71.50999999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2363,139 +4004,310 @@
       <c r="V34" t="n">
         <v>7.62</v>
       </c>
+      <c r="W34" t="n">
+        <v>34.65</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3873.38</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>155.12</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>120.03</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>260.83</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>635.08</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>526.65</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>383.29</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>144.93</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="n">
+        <v>5627.31</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>127.55</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>41.29</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>278.77</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>7.62</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166</v>
+        <v>85.09</v>
       </c>
       <c r="C35" t="n">
-        <v>19493.36</v>
+        <v>11836.68</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>748.73</v>
+        <v>429.15</v>
       </c>
       <c r="F35" t="n">
-        <v>849.34</v>
+        <v>459.73</v>
       </c>
       <c r="G35" t="n">
-        <v>1888.94</v>
+        <v>950.37</v>
       </c>
       <c r="H35" t="n">
-        <v>442.39</v>
+        <v>202.09</v>
       </c>
       <c r="I35" t="n">
-        <v>2790.29</v>
+        <v>1732.41</v>
       </c>
       <c r="J35" t="n">
-        <v>2310.39</v>
+        <v>1453.74</v>
       </c>
       <c r="K35" t="n">
-        <v>2451.29</v>
+        <v>1372.61</v>
       </c>
       <c r="L35" t="n">
-        <v>222.99</v>
+        <v>114.95</v>
       </c>
       <c r="M35" t="n">
-        <v>1181.33</v>
+        <v>637.92</v>
       </c>
       <c r="N35" t="n">
-        <v>241.72</v>
+        <v>153.85</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>29344.65</v>
+        <v>17310.74</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>785.58</v>
+        <v>370.17</v>
       </c>
       <c r="S35" t="n">
-        <v>280.56</v>
+        <v>180.93</v>
       </c>
       <c r="T35" t="n">
-        <v>196.92</v>
+        <v>120.67</v>
       </c>
       <c r="U35" t="n">
-        <v>1424.88</v>
+        <v>692.92</v>
       </c>
       <c r="V35" t="n">
-        <v>56.52</v>
+        <v>36.74</v>
+      </c>
+      <c r="W35" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="X35" t="n">
+        <v>7963.3</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>274.03</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>339.7</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>689.54</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>120.99</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1097.33</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>927.09</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>989.3199999999999</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>69.96000000000001</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>492.99</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>123.23</v>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="n">
+        <v>11683.43</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="n">
+        <v>242.62</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>139.64</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>50.55</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>414.15</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>29.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>85.09</v>
+        <v>166</v>
       </c>
       <c r="C36" t="n">
-        <v>11836.68</v>
+        <v>19493.36</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>429.15</v>
+        <v>748.73</v>
       </c>
       <c r="F36" t="n">
-        <v>459.73</v>
+        <v>849.34</v>
       </c>
       <c r="G36" t="n">
-        <v>950.37</v>
+        <v>1888.94</v>
       </c>
       <c r="H36" t="n">
-        <v>202.09</v>
+        <v>442.39</v>
       </c>
       <c r="I36" t="n">
-        <v>1732.41</v>
+        <v>2790.29</v>
       </c>
       <c r="J36" t="n">
-        <v>1453.74</v>
+        <v>2310.39</v>
       </c>
       <c r="K36" t="n">
-        <v>1372.61</v>
+        <v>2451.29</v>
       </c>
       <c r="L36" t="n">
-        <v>114.95</v>
+        <v>222.99</v>
       </c>
       <c r="M36" t="n">
-        <v>637.92</v>
+        <v>1181.33</v>
       </c>
       <c r="N36" t="n">
-        <v>153.85</v>
+        <v>241.72</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>17310.74</v>
+        <v>29344.65</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>370.17</v>
+        <v>785.58</v>
       </c>
       <c r="S36" t="n">
-        <v>180.93</v>
+        <v>280.56</v>
       </c>
       <c r="T36" t="n">
-        <v>120.67</v>
+        <v>196.92</v>
       </c>
       <c r="U36" t="n">
-        <v>692.92</v>
+        <v>1424.88</v>
       </c>
       <c r="V36" t="n">
-        <v>36.74</v>
+        <v>56.52</v>
+      </c>
+      <c r="W36" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="X36" t="n">
+        <v>7656.68</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>319.58</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>389.61</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>938.5700000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>240.3</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1057.88</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>856.6499999999999</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1078.68</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>108.04</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>543.41</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>87.87</v>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="n">
+        <v>12033.91</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="n">
+        <v>415.41</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>99.63</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>76.24999999999999</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>731.9600000000002</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>19.78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2555,11 +4367,68 @@
       <c r="V37" t="n">
         <v>127.39</v>
       </c>
+      <c r="W37" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>19774.4</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>762.96</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>859.09</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1682.86</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>349.92</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2983.58</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2341.85</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>2168.91</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>46.30000000000001</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>945.7600000000002</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>343.02</v>
+      </c>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="n">
+        <v>29188.09</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="n">
+        <v>694.2299999999999</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>352.02</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>141.47</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1185.62</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>70.87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2619,139 +4488,310 @@
       <c r="V38" t="n">
         <v>37.32</v>
       </c>
+      <c r="W38" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4185.92</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>188.86</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>147.75</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>418.34</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>683.8099999999999</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>545.15</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>600.77</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>88.81</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>213.63</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>72.14</v>
+      </c>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="n">
+        <v>6437.39</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="n">
+        <v>142.68</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>96.70999999999999</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>71.59</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>281.42</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>37.32</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.24</v>
+        <v>121.96</v>
       </c>
       <c r="C39" t="n">
-        <v>20250.45</v>
+        <v>11657.73</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>1005.18</v>
+        <v>413.4</v>
       </c>
       <c r="F39" t="n">
-        <v>940.15</v>
+        <v>493.35</v>
       </c>
       <c r="G39" t="n">
-        <v>1997.77</v>
+        <v>1121.37</v>
       </c>
       <c r="H39" t="n">
-        <v>303.71</v>
+        <v>183.41</v>
       </c>
       <c r="I39" t="n">
-        <v>2741.05</v>
+        <v>1718.94</v>
       </c>
       <c r="J39" t="n">
-        <v>2179.73</v>
+        <v>1300.38</v>
       </c>
       <c r="K39" t="n">
-        <v>3171.96</v>
+        <v>1708.85</v>
       </c>
       <c r="L39" t="n">
-        <v>413.32</v>
+        <v>371.03</v>
       </c>
       <c r="M39" t="n">
-        <v>1407.56</v>
+        <v>698.33</v>
       </c>
       <c r="N39" t="n">
-        <v>269.27</v>
+        <v>170.97</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>31011.1</v>
+        <v>17744.87</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>869.48</v>
+        <v>391.66</v>
       </c>
       <c r="S39" t="n">
-        <v>322.95</v>
+        <v>207.68</v>
       </c>
       <c r="T39" t="n">
-        <v>225.35</v>
+        <v>139.94</v>
       </c>
       <c r="U39" t="n">
-        <v>1398.55</v>
+        <v>715</v>
       </c>
       <c r="V39" t="n">
-        <v>76.62</v>
+        <v>55.12</v>
+      </c>
+      <c r="W39" t="n">
+        <v>99.27</v>
+      </c>
+      <c r="X39" t="n">
+        <v>7471.809999999999</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>224.54</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>345.6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>703.03</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>116.26</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1035.13</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>755.2300000000001</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1108.08</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>282.22</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>484.7</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="n">
+        <v>11307.48</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="n">
+        <v>248.98</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>110.97</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>433.58</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>17.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.96</v>
+        <v>188.24</v>
       </c>
       <c r="C40" t="n">
-        <v>11657.73</v>
+        <v>20250.45</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>413.4</v>
+        <v>1005.18</v>
       </c>
       <c r="F40" t="n">
-        <v>493.35</v>
+        <v>940.15</v>
       </c>
       <c r="G40" t="n">
-        <v>1121.37</v>
+        <v>1997.77</v>
       </c>
       <c r="H40" t="n">
-        <v>183.41</v>
+        <v>303.71</v>
       </c>
       <c r="I40" t="n">
-        <v>1718.94</v>
+        <v>2741.05</v>
       </c>
       <c r="J40" t="n">
-        <v>1300.38</v>
+        <v>2179.73</v>
       </c>
       <c r="K40" t="n">
-        <v>1708.85</v>
+        <v>3171.96</v>
       </c>
       <c r="L40" t="n">
-        <v>371.03</v>
+        <v>413.32</v>
       </c>
       <c r="M40" t="n">
-        <v>698.33</v>
+        <v>1407.56</v>
       </c>
       <c r="N40" t="n">
-        <v>170.97</v>
+        <v>269.27</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>17744.87</v>
+        <v>31011.1</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>391.66</v>
+        <v>869.48</v>
       </c>
       <c r="S40" t="n">
-        <v>207.68</v>
+        <v>322.95</v>
       </c>
       <c r="T40" t="n">
-        <v>139.94</v>
+        <v>225.35</v>
       </c>
       <c r="U40" t="n">
-        <v>715</v>
+        <v>1398.55</v>
       </c>
       <c r="V40" t="n">
-        <v>55.12</v>
+        <v>76.62</v>
+      </c>
+      <c r="W40" t="n">
+        <v>66.28000000000002</v>
+      </c>
+      <c r="X40" t="n">
+        <v>8592.720000000001</v>
+      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
+        <v>591.78</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>446.8</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>876.4000000000001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1022.11</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>879.3499999999999</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1463.11</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>42.29000000000002</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>709.2299999999999</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>98.29999999999998</v>
+      </c>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="n">
+        <v>13266.23</v>
+      </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="n">
+        <v>477.82</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>115.27</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>85.41</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>683.55</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>21.50000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2811,11 +4851,68 @@
       <c r="V41" t="n">
         <v>112.77</v>
       </c>
+      <c r="W41" t="n">
+        <v>166.39</v>
+      </c>
+      <c r="X41" t="n">
+        <v>21263.89</v>
+      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>769.5500000000001</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>898.4599999999999</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>2177.91</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>443.3800000000001</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3071.75</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2115.24</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>2945.13</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>106.8700000000001</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1779.06</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>253.52</v>
+      </c>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="n">
+        <v>32559.72</v>
+      </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="n">
+        <v>923.48</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>541.3199999999999</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>127.99</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1494.83</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>36.14999999999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2875,139 +4972,310 @@
       <c r="V42" t="n">
         <v>22.7</v>
       </c>
+      <c r="W42" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="X42" t="n">
+        <v>4974.63</v>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>120.91</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>166.83</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>421.05</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>57.73</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>628.3</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>551.11</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>729.5599999999999</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>430.74</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>114.02</v>
+      </c>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="n">
+        <v>7446.95</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="n">
+        <v>267.86</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>116.73</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>442.33</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.289999999999</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>21934.61</v>
+        <v>13232.88</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>938.8</v>
+        <v>487.29</v>
       </c>
       <c r="F43" t="n">
-        <v>730.889999999999</v>
+        <v>450.86</v>
       </c>
       <c r="G43" t="n">
-        <v>2204.88</v>
+        <v>1265.25</v>
       </c>
       <c r="H43" t="n">
-        <v>391.21</v>
+        <v>232.05</v>
       </c>
       <c r="I43" t="n">
-        <v>2520.28999999999</v>
+        <v>1574.56</v>
       </c>
       <c r="J43" t="n">
-        <v>2073.74</v>
+        <v>1311.99</v>
       </c>
       <c r="K43" t="n">
-        <v>3858.26</v>
+        <v>2571.45</v>
       </c>
       <c r="L43" t="n">
-        <v>285.72</v>
+        <v>196.61</v>
       </c>
       <c r="M43" t="n">
-        <v>2140.88999999999</v>
+        <v>1478.6</v>
       </c>
       <c r="N43" t="n">
-        <v>430.67</v>
+        <v>366.16</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>33763.2399999999</v>
+        <v>20650.03</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>1065.83999999999</v>
+        <v>578.16</v>
       </c>
       <c r="S43" t="n">
-        <v>554.259999999999</v>
+        <v>445.78</v>
       </c>
       <c r="T43" t="n">
-        <v>325.699999999999</v>
+        <v>216.26</v>
       </c>
       <c r="U43" t="n">
-        <v>1782.75</v>
+        <v>1026.47</v>
       </c>
       <c r="V43" t="n">
-        <v>62.18</v>
+        <v>42.79</v>
+      </c>
+      <c r="W43" t="n">
+        <v>66.68000000000001</v>
+      </c>
+      <c r="X43" t="n">
+        <v>8258.25</v>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>366.38</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>284.03</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>844.2</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>174.32</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>946.26</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>760.88</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1841.89</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>155.42</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1047.86</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>252.14</v>
+      </c>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="n">
+        <v>13203.08</v>
+      </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="n">
+        <v>310.3</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>99.52999999999999</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>584.1400000000001</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>20.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.79000000000001</v>
+        <v>177.289999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>13232.88</v>
+        <v>21934.61</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>487.29</v>
+        <v>938.8</v>
       </c>
       <c r="F44" t="n">
-        <v>450.86</v>
+        <v>730.889999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>1265.25</v>
+        <v>2204.88</v>
       </c>
       <c r="H44" t="n">
-        <v>232.05</v>
+        <v>391.21</v>
       </c>
       <c r="I44" t="n">
-        <v>1574.56</v>
+        <v>2520.28999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>1311.99</v>
+        <v>2073.74</v>
       </c>
       <c r="K44" t="n">
-        <v>2571.45</v>
+        <v>3858.26</v>
       </c>
       <c r="L44" t="n">
-        <v>196.61</v>
+        <v>285.72</v>
       </c>
       <c r="M44" t="n">
-        <v>1478.6</v>
+        <v>2140.88999999999</v>
       </c>
       <c r="N44" t="n">
-        <v>366.16</v>
+        <v>430.67</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>20650.03</v>
+        <v>33763.2399999999</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>578.16</v>
+        <v>1065.83999999999</v>
       </c>
       <c r="S44" t="n">
-        <v>445.78</v>
+        <v>554.259999999999</v>
       </c>
       <c r="T44" t="n">
-        <v>216.26</v>
+        <v>325.699999999999</v>
       </c>
       <c r="U44" t="n">
-        <v>1026.47</v>
+        <v>1782.75</v>
       </c>
       <c r="V44" t="n">
-        <v>42.79</v>
+        <v>62.18</v>
+      </c>
+      <c r="W44" t="n">
+        <v>94.49999999999899</v>
+      </c>
+      <c r="X44" t="n">
+        <v>8701.730000000001</v>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>451.5099999999999</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>280.0299999999989</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>939.6300000000001</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>159.16</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>945.72999999999</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>761.7499999999998</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1286.81</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>89.11000000000001</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>662.28999999999</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>64.50999999999999</v>
+      </c>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="n">
+        <v>13113.2099999999</v>
+      </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="n">
+        <v>487.6799999999899</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>108.479999999999</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>109.439999999999</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>756.28</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>19.39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3067,11 +5335,68 @@
       <c r="V45" t="n">
         <v>117.3</v>
       </c>
+      <c r="W45" t="n">
+        <v>286.570000000001</v>
+      </c>
+      <c r="X45" t="n">
+        <v>21278.05</v>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>765.1200000000001</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>809.7500000000011</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1997.78</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>348.3700000000001</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>2952.32000000001</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>2399.39</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>3653.69</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>340.6899999999999</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1976.06000000001</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>516.7</v>
+      </c>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="n">
+        <v>32820.5800000001</v>
+      </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>793.45000000001</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>533.830000000001</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>166.770000000001</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1308.6</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>55.12</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3131,139 +5456,310 @@
       <c r="V46" t="n">
         <v>4.99</v>
       </c>
+      <c r="W46" t="n">
+        <v>81.06999999999999</v>
+      </c>
+      <c r="X46" t="n">
+        <v>6006.56</v>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
+        <v>223.81</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>246.09</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>557.25</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>105.11</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>656.6900000000001</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>469.3</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>836.23</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>141.58</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>375.03</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>90.81</v>
+      </c>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="n">
+        <v>8851.02</v>
+      </c>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>233.83</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>385.09</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>4.99</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>236.3</v>
+        <v>135.17</v>
       </c>
       <c r="C47" t="n">
-        <v>23337.94</v>
+        <v>14218.38</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>966.74</v>
+        <v>559.66</v>
       </c>
       <c r="F47" t="n">
-        <v>771.11</v>
+        <v>513.21</v>
       </c>
       <c r="G47" t="n">
-        <v>2403.07</v>
+        <v>1513.9</v>
       </c>
       <c r="H47" t="n">
-        <v>444.88</v>
+        <v>243.49</v>
       </c>
       <c r="I47" t="n">
-        <v>2651.92</v>
+        <v>1478.35</v>
       </c>
       <c r="J47" t="n">
-        <v>2030.91</v>
+        <v>1112.89</v>
       </c>
       <c r="K47" t="n">
-        <v>3563.58</v>
+        <v>2232.15</v>
       </c>
       <c r="L47" t="n">
-        <v>620.88</v>
+        <v>418.79</v>
       </c>
       <c r="M47" t="n">
-        <v>1576.64</v>
+        <v>953.95</v>
       </c>
       <c r="N47" t="n">
-        <v>363.63</v>
+        <v>271.29</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>35085.21</v>
+        <v>21302.42</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1085.82</v>
+        <v>601.5700000000001</v>
       </c>
       <c r="S47" t="n">
-        <v>374.55</v>
+        <v>206.4</v>
       </c>
       <c r="T47" t="n">
-        <v>216.04</v>
+        <v>159.79</v>
       </c>
       <c r="U47" t="n">
-        <v>1746.75</v>
+        <v>1004.85</v>
       </c>
       <c r="V47" t="n">
-        <v>35.69</v>
+        <v>28.46</v>
+      </c>
+      <c r="W47" t="n">
+        <v>54.09999999999999</v>
+      </c>
+      <c r="X47" t="n">
+        <v>8211.82</v>
+      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
+        <v>335.85</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>267.12</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>956.6500000000001</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>138.38</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>821.6599999999999</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>643.5900000000001</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1395.92</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>277.21</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>578.9200000000001</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>180.48</v>
+      </c>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="n">
+        <v>12451.4</v>
+      </c>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>367.74</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>124.36</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>113.64</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>619.76</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>23.47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>135.17</v>
+        <v>236.3</v>
       </c>
       <c r="C48" t="n">
-        <v>14218.38</v>
+        <v>23337.94</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>559.66</v>
+        <v>966.74</v>
       </c>
       <c r="F48" t="n">
-        <v>513.21</v>
+        <v>771.11</v>
       </c>
       <c r="G48" t="n">
-        <v>1513.9</v>
+        <v>2403.07</v>
       </c>
       <c r="H48" t="n">
-        <v>243.49</v>
+        <v>444.88</v>
       </c>
       <c r="I48" t="n">
-        <v>1478.35</v>
+        <v>2651.92</v>
       </c>
       <c r="J48" t="n">
-        <v>1112.89</v>
+        <v>2030.91</v>
       </c>
       <c r="K48" t="n">
-        <v>2232.15</v>
+        <v>3563.58</v>
       </c>
       <c r="L48" t="n">
-        <v>418.79</v>
+        <v>620.88</v>
       </c>
       <c r="M48" t="n">
-        <v>953.95</v>
+        <v>1576.64</v>
       </c>
       <c r="N48" t="n">
-        <v>271.29</v>
+        <v>363.63</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>21302.42</v>
+        <v>35085.21</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>601.5700000000001</v>
+        <v>1085.82</v>
       </c>
       <c r="S48" t="n">
-        <v>206.4</v>
+        <v>374.55</v>
       </c>
       <c r="T48" t="n">
-        <v>159.79</v>
+        <v>216.04</v>
       </c>
       <c r="U48" t="n">
-        <v>1004.85</v>
+        <v>1746.75</v>
       </c>
       <c r="V48" t="n">
-        <v>28.46</v>
+        <v>35.69</v>
+      </c>
+      <c r="W48" t="n">
+        <v>101.13</v>
+      </c>
+      <c r="X48" t="n">
+        <v>9119.559999999999</v>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
+        <v>407.08</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>257.9</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>889.1700000000001</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>201.39</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1173.57</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>918.02</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1331.43</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>202.09</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>622.6900000000001</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>92.33999999999997</v>
+      </c>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="n">
+        <v>13782.79</v>
+      </c>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="n">
+        <v>484.2499999999999</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>168.15</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>741.9</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>7.229999999999997</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3323,11 +5819,68 @@
       <c r="V49" t="n">
         <v>44.19</v>
       </c>
+      <c r="W49" t="n">
+        <v>161.53</v>
+      </c>
+      <c r="X49" t="n">
+        <v>20805.96</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
+        <v>798.6099999999999</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1024.43</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1838.22</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>388.3</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2567.64</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2129.860000000001</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>2953.47</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>210.78</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1665.35</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>270.23</v>
+      </c>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="n">
+        <v>31800.44</v>
+      </c>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="n">
+        <v>1160.28</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>647.8299999999999</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>252.78</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1801.35</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3387,139 +5940,310 @@
       <c r="V50" t="n">
         <v>29.67</v>
       </c>
+      <c r="W50" t="n">
+        <v>34.95</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5921.03</v>
+      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>180.74</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>219.7</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>147.57</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>796.1799999999999</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>446.75</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>665.27</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>57.24</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>363.04</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>34.58</v>
+      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="n">
+        <v>8650.719999999999</v>
+      </c>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="n">
+        <v>264.54</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>62.64</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>474.75</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>29.67</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>208.49</v>
+        <v>65.47</v>
       </c>
       <c r="C51" t="n">
-        <v>23663.17</v>
+        <v>14211.23</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>725.34</v>
+        <v>429.35</v>
       </c>
       <c r="F51" t="n">
-        <v>810.0599999999999</v>
+        <v>448.83</v>
       </c>
       <c r="G51" t="n">
-        <v>1926.1</v>
+        <v>1150.47</v>
       </c>
       <c r="H51" t="n">
-        <v>490.65</v>
+        <v>376.07</v>
       </c>
       <c r="I51" t="n">
-        <v>3094.07</v>
+        <v>1908.77</v>
       </c>
       <c r="J51" t="n">
-        <v>2220.52</v>
+        <v>1219.45</v>
       </c>
       <c r="K51" t="n">
-        <v>3300.75</v>
+        <v>2159.04</v>
       </c>
       <c r="L51" t="n">
-        <v>263.99</v>
+        <v>177.49</v>
       </c>
       <c r="M51" t="n">
-        <v>2058</v>
+        <v>1356.9</v>
       </c>
       <c r="N51" t="n">
-        <v>138.08</v>
+        <v>83.13</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
-        <v>35364.84</v>
+        <v>21447.05</v>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>1238.15</v>
+        <v>784.78</v>
       </c>
       <c r="S51" t="n">
-        <v>425.66</v>
+        <v>204.3</v>
       </c>
       <c r="T51" t="n">
-        <v>207.74</v>
+        <v>138.1</v>
       </c>
       <c r="U51" t="n">
-        <v>1936.54</v>
+        <v>1298.94</v>
       </c>
       <c r="V51" t="n">
-        <v>115.34</v>
+        <v>112.18</v>
+      </c>
+      <c r="W51" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="X51" t="n">
+        <v>8290.200000000001</v>
+      </c>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="n">
+        <v>248.61</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>229.13</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>725.22</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1112.59</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>772.7</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1493.77</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>120.25</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>993.8600000000001</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="n">
+        <v>12796.33</v>
+      </c>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="n">
+        <v>520.24</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>90.70000000000002</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>824.1900000000001</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>82.51000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>65.47</v>
+        <v>208.49</v>
       </c>
       <c r="C52" t="n">
-        <v>14211.23</v>
+        <v>23663.17</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>429.35</v>
+        <v>725.34</v>
       </c>
       <c r="F52" t="n">
-        <v>448.83</v>
+        <v>810.0599999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>1150.47</v>
+        <v>1926.1</v>
       </c>
       <c r="H52" t="n">
-        <v>376.07</v>
+        <v>490.65</v>
       </c>
       <c r="I52" t="n">
-        <v>1908.77</v>
+        <v>3094.07</v>
       </c>
       <c r="J52" t="n">
-        <v>1219.45</v>
+        <v>2220.52</v>
       </c>
       <c r="K52" t="n">
-        <v>2159.04</v>
+        <v>3300.75</v>
       </c>
       <c r="L52" t="n">
-        <v>177.49</v>
+        <v>263.99</v>
       </c>
       <c r="M52" t="n">
-        <v>1356.9</v>
+        <v>2058</v>
       </c>
       <c r="N52" t="n">
-        <v>83.13</v>
+        <v>138.08</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
-        <v>21447.05</v>
+        <v>35364.84</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>784.78</v>
+        <v>1238.15</v>
       </c>
       <c r="S52" t="n">
-        <v>204.3</v>
+        <v>425.66</v>
       </c>
       <c r="T52" t="n">
-        <v>138.1</v>
+        <v>207.74</v>
       </c>
       <c r="U52" t="n">
-        <v>1298.94</v>
+        <v>1936.54</v>
       </c>
       <c r="V52" t="n">
-        <v>112.18</v>
+        <v>115.34</v>
+      </c>
+      <c r="W52" t="n">
+        <v>143.02</v>
+      </c>
+      <c r="X52" t="n">
+        <v>9451.939999999999</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>295.99</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>361.23</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>775.6299999999999</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>114.58</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1185.3</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1001.07</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1141.71</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>701.0999999999999</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>54.95000000000002</v>
+      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="n">
+        <v>13917.79</v>
+      </c>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="n">
+        <v>453.3700000000001</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>221.36</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>69.64000000000001</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>637.5999999999999</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>3.159999999999997</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3579,11 +6303,68 @@
       <c r="V53" t="n">
         <v>141.06</v>
       </c>
+      <c r="W53" t="n">
+        <v>184.74</v>
+      </c>
+      <c r="X53" t="n">
+        <v>21315.77</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="n">
+        <v>940.41</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>973.4400000000001</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1908.53</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>404.41</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>2896</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1883.2</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>3124.75</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>262.78</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1667.97</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>227.87</v>
+      </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="n">
+        <v>32785.54000000001</v>
+      </c>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="n">
+        <v>1392.1</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>424.07</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>161.74</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1958.24</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>25.72</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3643,139 +6424,310 @@
       <c r="V54" t="n">
         <v>8.76</v>
       </c>
+      <c r="W54" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="X54" t="n">
+        <v>5873.85</v>
+      </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="n">
+        <v>214.74</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>176.51</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>636.38</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>192.15</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>823.73</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>603.9400000000001</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>779.6799999999999</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>136.71</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>355.16</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>64.31</v>
+      </c>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="n">
+        <v>8893.879999999999</v>
+      </c>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="n">
+        <v>262.18</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>76.47</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>56.63</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>510.96</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>8.76</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>114.78</v>
+        <v>45.36</v>
       </c>
       <c r="C55" t="n">
-        <v>27650.15</v>
+        <v>17111.71</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>1621.87</v>
+        <v>709.72</v>
       </c>
       <c r="F55" t="n">
-        <v>1055.44</v>
+        <v>453.54</v>
       </c>
       <c r="G55" t="n">
-        <v>2255.82</v>
+        <v>1333.65</v>
       </c>
       <c r="H55" t="n">
-        <v>612.58</v>
+        <v>297.44</v>
       </c>
       <c r="I55" t="n">
-        <v>3204.17</v>
+        <v>1967.68</v>
       </c>
       <c r="J55" t="n">
-        <v>2480.66</v>
+        <v>1487.62</v>
       </c>
       <c r="K55" t="n">
-        <v>5213.52</v>
+        <v>2037.65</v>
       </c>
       <c r="L55" t="n">
-        <v>381.36</v>
+        <v>224.58</v>
       </c>
       <c r="M55" t="n">
-        <v>2852.29</v>
+        <v>956.92</v>
       </c>
       <c r="N55" t="n">
-        <v>317.06</v>
+        <v>117.98</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>42639.89</v>
+        <v>24250.53</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>1382.49</v>
+        <v>667.52</v>
       </c>
       <c r="S55" t="n">
-        <v>866.99</v>
+        <v>233.16</v>
       </c>
       <c r="T55" t="n">
-        <v>283.95</v>
+        <v>102.82</v>
       </c>
       <c r="U55" t="n">
-        <v>2279.02</v>
+        <v>1067.78</v>
       </c>
       <c r="V55" t="n">
-        <v>40.94</v>
+        <v>28.45</v>
+      </c>
+      <c r="W55" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="X55" t="n">
+        <v>11237.86</v>
+      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>494.98</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>277.03</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>697.2700000000001</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>105.29</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1143.95</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>883.6799999999998</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1257.97</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>87.87</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>601.76</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>53.67</v>
+      </c>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="n">
+        <v>15356.65</v>
+      </c>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="n">
+        <v>405.34</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>156.69</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>46.18999999999999</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>556.8199999999999</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>19.69</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>45.36</v>
+        <v>114.78</v>
       </c>
       <c r="C56" t="n">
-        <v>17111.71</v>
+        <v>27650.15</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>709.72</v>
+        <v>1621.87</v>
       </c>
       <c r="F56" t="n">
-        <v>453.54</v>
+        <v>1055.44</v>
       </c>
       <c r="G56" t="n">
-        <v>1333.65</v>
+        <v>2255.82</v>
       </c>
       <c r="H56" t="n">
-        <v>297.44</v>
+        <v>612.58</v>
       </c>
       <c r="I56" t="n">
-        <v>1967.68</v>
+        <v>3204.17</v>
       </c>
       <c r="J56" t="n">
-        <v>1487.62</v>
+        <v>2480.66</v>
       </c>
       <c r="K56" t="n">
-        <v>2037.65</v>
+        <v>5213.52</v>
       </c>
       <c r="L56" t="n">
-        <v>224.58</v>
+        <v>381.36</v>
       </c>
       <c r="M56" t="n">
-        <v>956.92</v>
+        <v>2852.29</v>
       </c>
       <c r="N56" t="n">
-        <v>117.98</v>
+        <v>317.06</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>24250.53</v>
+        <v>42639.89</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>667.52</v>
+        <v>1382.49</v>
       </c>
       <c r="S56" t="n">
-        <v>233.16</v>
+        <v>866.99</v>
       </c>
       <c r="T56" t="n">
-        <v>102.82</v>
+        <v>283.95</v>
       </c>
       <c r="U56" t="n">
-        <v>1067.78</v>
+        <v>2279.02</v>
       </c>
       <c r="V56" t="n">
-        <v>28.45</v>
+        <v>40.94</v>
+      </c>
+      <c r="W56" t="n">
+        <v>69.42</v>
+      </c>
+      <c r="X56" t="n">
+        <v>10538.44</v>
+      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>912.1499999999999</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>601.9000000000001</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>922.1700000000001</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>315.14</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1236.49</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>993.04</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>3175.87</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>156.78</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1895.37</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>199.08</v>
+      </c>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>18389.36</v>
+      </c>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="n">
+        <v>714.97</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>633.83</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>181.13</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1211.24</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>12.49</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3835,11 +6787,68 @@
       <c r="V57" t="n">
         <v>68.19</v>
       </c>
+      <c r="W57" t="n">
+        <v>244.01</v>
+      </c>
+      <c r="X57" t="n">
+        <v>20455.29</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>985.6199999999999</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1304.55</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1761.24</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>424.15</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>2975.94</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>2376.37</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>3219.939999999999</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>393.9399999999999</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1532.73</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="n">
+        <v>32310.63</v>
+      </c>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="n">
+        <v>1313.21</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>338.1199999999999</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>274.18</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2011.54</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>27.25</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3899,139 +6908,310 @@
       <c r="V58" t="n">
         <v>0.2671</v>
       </c>
+      <c r="W58" t="n">
+        <v>32.2217</v>
+      </c>
+      <c r="X58" t="n">
+        <v>4630.9725</v>
+      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="n">
+        <v>154.5448</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>167.1837</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>341.9205</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>85.687</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>729.057</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>549.4231</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>463.4522</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>18.1126</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>227.753</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>62.7747</v>
+      </c>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="n">
+        <v>6822.4345</v>
+      </c>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="n">
+        <v>213.9493</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>111.8313</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>46.1593</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>345.7956</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.2671</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>177.7988</v>
+        <v>104.8525</v>
       </c>
       <c r="C59" t="n">
-        <v>25153.548</v>
+        <v>13762.67</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>679.4843</v>
+        <v>376.9202</v>
       </c>
       <c r="F59" t="n">
-        <v>1140.6454</v>
+        <v>710.6261</v>
       </c>
       <c r="G59" t="n">
-        <v>1535.0318</v>
+        <v>892.4745</v>
       </c>
       <c r="H59" t="n">
-        <v>631.2173</v>
+        <v>385.7205</v>
       </c>
       <c r="I59" t="n">
-        <v>3304.6465</v>
+        <v>2005.2867</v>
       </c>
       <c r="J59" t="n">
-        <v>2405.0104</v>
+        <v>1578.5504</v>
       </c>
       <c r="K59" t="n">
-        <v>3052.5936</v>
+        <v>1652.7743</v>
       </c>
       <c r="L59" t="n">
-        <v>252.9795</v>
+        <v>181.648</v>
       </c>
       <c r="M59" t="n">
-        <v>1914.1899</v>
+        <v>914.6692</v>
       </c>
       <c r="N59" t="n">
-        <v>195.2207</v>
+        <v>94.77460000000001</v>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>37353.8581</v>
+        <v>20842.2066</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>1622.1496</v>
+        <v>845.9271</v>
       </c>
       <c r="S59" t="n">
-        <v>492.5469</v>
+        <v>341.3587</v>
       </c>
       <c r="T59" t="n">
-        <v>243.6802</v>
+        <v>140.5162</v>
       </c>
       <c r="U59" t="n">
-        <v>2497.0471</v>
+        <v>1372.1638</v>
       </c>
       <c r="V59" t="n">
-        <v>10.7192</v>
+        <v>84.7623</v>
+      </c>
+      <c r="W59" t="n">
+        <v>72.63080000000001</v>
+      </c>
+      <c r="X59" t="n">
+        <v>9131.6975</v>
+      </c>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="n">
+        <v>222.3754</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>543.4423999999999</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>550.5540000000001</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>300.0335</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1276.2297</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1029.1273</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1189.3221</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>163.5354</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>686.9162000000001</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>31.9999</v>
+      </c>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="n">
+        <v>14019.7721</v>
+      </c>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="n">
+        <v>631.9778</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>229.5274</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>94.3569</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1026.3682</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>84.4952</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>104.8525</v>
+        <v>177.7988</v>
       </c>
       <c r="C60" t="n">
-        <v>13762.67</v>
+        <v>25153.548</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>376.9202</v>
+        <v>679.4843</v>
       </c>
       <c r="F60" t="n">
-        <v>710.6261</v>
+        <v>1140.6454</v>
       </c>
       <c r="G60" t="n">
-        <v>892.4745</v>
+        <v>1535.0318</v>
       </c>
       <c r="H60" t="n">
-        <v>385.7205</v>
+        <v>631.2173</v>
       </c>
       <c r="I60" t="n">
-        <v>2005.2867</v>
+        <v>3304.6465</v>
       </c>
       <c r="J60" t="n">
-        <v>1578.5504</v>
+        <v>2405.0104</v>
       </c>
       <c r="K60" t="n">
-        <v>1652.7743</v>
+        <v>3052.5936</v>
       </c>
       <c r="L60" t="n">
-        <v>181.648</v>
+        <v>252.9795</v>
       </c>
       <c r="M60" t="n">
-        <v>914.6692</v>
+        <v>1914.1899</v>
       </c>
       <c r="N60" t="n">
-        <v>94.77460000000001</v>
+        <v>195.2207</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>20842.2066</v>
+        <v>37353.8581</v>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>845.9271</v>
+        <v>1622.1496</v>
       </c>
       <c r="S60" t="n">
-        <v>341.3587</v>
+        <v>492.5469</v>
       </c>
       <c r="T60" t="n">
-        <v>140.5162</v>
+        <v>243.6802</v>
       </c>
       <c r="U60" t="n">
-        <v>1372.1638</v>
+        <v>2497.0471</v>
       </c>
       <c r="V60" t="n">
-        <v>84.7623</v>
+        <v>10.7192</v>
+      </c>
+      <c r="W60" t="n">
+        <v>72.94629999999999</v>
+      </c>
+      <c r="X60" t="n">
+        <v>11390.878</v>
+      </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="n">
+        <v>302.5640999999999</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>430.0193000000002</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>642.5572999999999</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>245.4968</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1299.3598</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>826.46</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1399.8193</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>71.33150000000001</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>999.5207</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>100.4461</v>
+      </c>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="n">
+        <v>16511.6515</v>
+      </c>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="n">
+        <v>776.2225</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>151.1882</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>103.164</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1124.8833</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>10.7192</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4091,11 +7271,68 @@
       <c r="V61" t="n">
         <v>95.262</v>
       </c>
+      <c r="W61" t="n">
+        <v>241.4235</v>
+      </c>
+      <c r="X61" t="n">
+        <v>22971.0493</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>1745.5324</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1441.7574</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1742.914</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>906.4545000000001</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3137.7793</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2459.2633</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3475.831099999999</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>343.7723</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>896.8628999999999</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>405.1207000000001</v>
+      </c>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="n">
+        <v>36310.3933</v>
+      </c>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="n">
+        <v>1617.6993</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>518.8063999999999</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>256.6785</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>2780.8323</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>84.5428</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4155,139 +7392,310 @@
       <c r="V62" t="n">
         <v>0.7743</v>
       </c>
+      <c r="W62" t="n">
+        <v>137.7158</v>
+      </c>
+      <c r="X62" t="n">
+        <v>6317.0029</v>
+      </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>378.4862</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>255.6531</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>649.3317</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>215.9868</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1169.8042</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>928.5628</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>926.6004</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>39.9005</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>445.6339</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>61.8055</v>
+      </c>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="n">
+        <v>10249.2146</v>
+      </c>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="n">
+        <v>473.4978</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>68.6349</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>34.987</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>724.4716</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.7743</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>298.2847</v>
+        <v>211.8853</v>
       </c>
       <c r="C63" t="n">
-        <v>32477.5906</v>
+        <v>19076.4404</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>1683.9398</v>
+        <v>1186.4287</v>
       </c>
       <c r="F63" t="n">
-        <v>1359.6817</v>
+        <v>899.4804</v>
       </c>
       <c r="G63" t="n">
-        <v>2341.4865</v>
+        <v>1356.7236</v>
       </c>
       <c r="H63" t="n">
-        <v>1236.6657</v>
+        <v>643.0294</v>
       </c>
       <c r="I63" t="n">
-        <v>7217.4494</v>
+        <v>4334.6526</v>
       </c>
       <c r="J63" t="n">
-        <v>3144.5486</v>
+        <v>3557.3117</v>
       </c>
       <c r="K63" t="n">
-        <v>4051.6292</v>
+        <v>2475.6894</v>
       </c>
       <c r="L63" t="n">
-        <v>251.2176</v>
+        <v>167.0937</v>
       </c>
       <c r="M63" t="n">
-        <v>1705.521</v>
+        <v>875.7299</v>
       </c>
       <c r="N63" t="n">
-        <v>369.2188</v>
+        <v>223.9317</v>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>52489.3365</v>
+        <v>30697.223</v>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>2515.9671</v>
+        <v>1160.5062</v>
       </c>
       <c r="S63" t="n">
-        <v>719.7197</v>
+        <v>389.4717</v>
       </c>
       <c r="T63" t="n">
-        <v>270.8619</v>
+        <v>149.344</v>
       </c>
       <c r="U63" t="n">
-        <v>4023.4947</v>
+        <v>1952.8796</v>
       </c>
       <c r="V63" t="n">
-        <v>41.732</v>
+        <v>22.5054</v>
+      </c>
+      <c r="W63" t="n">
+        <v>74.1695</v>
+      </c>
+      <c r="X63" t="n">
+        <v>12759.4375</v>
+      </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="n">
+        <v>807.9424999999999</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>643.8273</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>707.3919000000001</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>427.0426</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3164.8484</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2628.7489</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1549.089</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>127.1932</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>430.0960000000001</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>162.1262</v>
+      </c>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="n">
+        <v>20448.0084</v>
+      </c>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="n">
+        <v>687.0084000000001</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>320.8368</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>114.357</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1228.408</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>21.7311</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>211.8853</v>
+        <v>298.2847</v>
       </c>
       <c r="C64" t="n">
-        <v>19076.4404</v>
+        <v>32477.5906</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>1186.4287</v>
+        <v>1683.9398</v>
       </c>
       <c r="F64" t="n">
-        <v>899.4804</v>
+        <v>1359.6817</v>
       </c>
       <c r="G64" t="n">
-        <v>1356.7236</v>
+        <v>2341.4865</v>
       </c>
       <c r="H64" t="n">
-        <v>643.0294</v>
+        <v>1236.6657</v>
       </c>
       <c r="I64" t="n">
-        <v>4334.6526</v>
+        <v>7217.4494</v>
       </c>
       <c r="J64" t="n">
-        <v>3557.3117</v>
+        <v>3144.5486</v>
       </c>
       <c r="K64" t="n">
-        <v>2475.6894</v>
+        <v>4051.6292</v>
       </c>
       <c r="L64" t="n">
-        <v>167.0937</v>
+        <v>251.2176</v>
       </c>
       <c r="M64" t="n">
-        <v>875.7299</v>
+        <v>1705.521</v>
       </c>
       <c r="N64" t="n">
-        <v>223.9317</v>
+        <v>369.2188</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>30697.223</v>
+        <v>52489.3365</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>1160.5062</v>
+        <v>2515.9671</v>
       </c>
       <c r="S64" t="n">
-        <v>389.4717</v>
+        <v>719.7197</v>
       </c>
       <c r="T64" t="n">
-        <v>149.344</v>
+        <v>270.8619</v>
       </c>
       <c r="U64" t="n">
-        <v>1952.8796</v>
+        <v>4023.4947</v>
       </c>
       <c r="V64" t="n">
-        <v>22.5054</v>
+        <v>41.732</v>
+      </c>
+      <c r="W64" t="n">
+        <v>86.39939999999999</v>
+      </c>
+      <c r="X64" t="n">
+        <v>13401.1502</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="n">
+        <v>497.5111000000002</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>460.2013000000001</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>984.7628999999999</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>593.6363</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>2882.7968</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3144.5486</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1575.9398</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>84.12389999999999</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>829.7910999999999</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>145.2871</v>
+      </c>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="n">
+        <v>21792.1135</v>
+      </c>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="n">
+        <v>1355.4609</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>330.248</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>121.5179</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2070.6151</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>19.2266</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4346,6 +7754,63 @@
       </c>
       <c r="V65" t="n">
         <v>57.4779</v>
+      </c>
+      <c r="W65" t="n">
+        <v>276.5772</v>
+      </c>
+      <c r="X65" t="n">
+        <v>30015.0715</v>
+      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="n">
+        <v>999.0536999999999</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1668.6009</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>2147.717</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>862.3325</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3990.6238</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>5836.8791</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>3026.9688</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>354.5977</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1434.9318</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>222.6397000000001</v>
+      </c>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="n">
+        <v>45174.8795</v>
+      </c>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="n">
+        <v>2138.7884</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>758.2872000000001</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>289.9122</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>3291.0331</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>15.7459</v>
       </c>
     </row>
   </sheetData>
